--- a/documents/schedule_classrooms_lojagiellonczyk.xlsx
+++ b/documents/schedule_classrooms_lojagiellonczyk.xlsx
@@ -82,7 +82,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -194,6 +194,38 @@
       <right style="medium">
         <color rgb="00000000"/>
       </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color rgb="00000000"/>
@@ -220,6 +252,38 @@
       <bottom style="medium">
         <color rgb="00000000"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -319,61 +383,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -741,7 +806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1668,6 +1733,30 @@
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="18" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -1688,7 +1777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,66 +2516,90 @@
     </row>
     <row r="11" ht="14.3" customHeight="1">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="19" t="n">
+      <c r="B11" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="inlineStr">
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>13:40-14:25</t>
         </is>
       </c>
-      <c r="D11" s="20" t="inlineStr"/>
-      <c r="E11" s="20" t="inlineStr"/>
-      <c r="F11" s="20" t="inlineStr"/>
-      <c r="G11" s="21" t="inlineStr"/>
-      <c r="H11" s="20" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr"/>
+      <c r="E11" s="21" t="inlineStr"/>
+      <c r="F11" s="21" t="inlineStr"/>
+      <c r="G11" s="22" t="inlineStr"/>
+      <c r="H11" s="21" t="inlineStr">
         <is>
           <t>o.rozw.kreat</t>
         </is>
       </c>
-      <c r="I11" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K11" s="21" t="inlineStr">
+      <c r="I11" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" s="22" t="inlineStr">
         <is>
           <t>2F POLITECHNICZNA</t>
         </is>
       </c>
-      <c r="L11" s="20" t="inlineStr"/>
-      <c r="M11" s="20" t="inlineStr"/>
-      <c r="N11" s="20" t="inlineStr"/>
-      <c r="O11" s="21" t="inlineStr"/>
-      <c r="P11" s="20" t="inlineStr"/>
-      <c r="Q11" s="20" t="inlineStr"/>
-      <c r="R11" s="20" t="inlineStr"/>
-      <c r="S11" s="21" t="inlineStr"/>
-      <c r="T11" s="20" t="inlineStr">
+      <c r="L11" s="21" t="inlineStr"/>
+      <c r="M11" s="21" t="inlineStr"/>
+      <c r="N11" s="21" t="inlineStr"/>
+      <c r="O11" s="22" t="inlineStr"/>
+      <c r="P11" s="21" t="inlineStr"/>
+      <c r="Q11" s="21" t="inlineStr"/>
+      <c r="R11" s="21" t="inlineStr"/>
+      <c r="S11" s="22" t="inlineStr"/>
+      <c r="T11" s="21" t="inlineStr">
         <is>
           <t>Jhisz</t>
         </is>
       </c>
-      <c r="U11" s="20" t="inlineStr">
+      <c r="U11" s="21" t="inlineStr">
         <is>
           <t>2/3</t>
         </is>
       </c>
-      <c r="V11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W11" s="21" t="inlineStr">
+      <c r="V11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W11" s="22" t="inlineStr">
         <is>
           <t>1A LINGWISTYCZNO- BIZNESOWA</t>
         </is>
       </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="19" t="n"/>
+      <c r="C12" s="19" t="n"/>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="19" t="n"/>
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="19" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="19" t="n"/>
+      <c r="J12" s="19" t="n"/>
+      <c r="K12" s="19" t="n"/>
+      <c r="L12" s="19" t="n"/>
+      <c r="M12" s="19" t="n"/>
+      <c r="N12" s="19" t="n"/>
+      <c r="O12" s="19" t="n"/>
+      <c r="P12" s="19" t="n"/>
+      <c r="Q12" s="19" t="n"/>
+      <c r="R12" s="19" t="n"/>
+      <c r="S12" s="19" t="n"/>
+      <c r="T12" s="19" t="n"/>
+      <c r="U12" s="19" t="n"/>
+      <c r="V12" s="19" t="n"/>
+      <c r="W12" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2508,7 +2621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3483,6 +3596,30 @@
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="18" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -3503,7 +3640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4446,6 +4583,30 @@
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="18" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -4466,7 +4627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5579,6 +5740,30 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="B15" s="19" t="n"/>
+      <c r="C15" s="19" t="n"/>
+      <c r="D15" s="19" t="n"/>
+      <c r="E15" s="19" t="n"/>
+      <c r="F15" s="19" t="n"/>
+      <c r="G15" s="19" t="n"/>
+      <c r="H15" s="19" t="n"/>
+      <c r="I15" s="19" t="n"/>
+      <c r="J15" s="19" t="n"/>
+      <c r="K15" s="19" t="n"/>
+      <c r="L15" s="19" t="n"/>
+      <c r="M15" s="19" t="n"/>
+      <c r="N15" s="19" t="n"/>
+      <c r="O15" s="19" t="n"/>
+      <c r="P15" s="19" t="n"/>
+      <c r="Q15" s="19" t="n"/>
+      <c r="R15" s="19" t="n"/>
+      <c r="S15" s="19" t="n"/>
+      <c r="T15" s="19" t="n"/>
+      <c r="U15" s="19" t="n"/>
+      <c r="V15" s="19" t="n"/>
+      <c r="W15" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="D4:W4"/>
@@ -5601,7 +5786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6608,6 +6793,30 @@
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="18" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -6628,7 +6837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7479,66 +7688,90 @@
     </row>
     <row r="11" ht="14.3" customHeight="1">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="19" t="n">
+      <c r="B11" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="inlineStr">
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>13:40-14:25</t>
         </is>
       </c>
-      <c r="D11" s="20" t="inlineStr"/>
-      <c r="E11" s="20" t="inlineStr"/>
-      <c r="F11" s="20" t="inlineStr"/>
-      <c r="G11" s="21" t="inlineStr"/>
-      <c r="H11" s="20" t="inlineStr"/>
-      <c r="I11" s="20" t="inlineStr"/>
-      <c r="J11" s="20" t="inlineStr"/>
-      <c r="K11" s="21" t="inlineStr"/>
-      <c r="L11" s="20" t="inlineStr"/>
-      <c r="M11" s="20" t="inlineStr"/>
-      <c r="N11" s="20" t="inlineStr"/>
-      <c r="O11" s="21" t="inlineStr"/>
-      <c r="P11" s="20" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr"/>
+      <c r="E11" s="21" t="inlineStr"/>
+      <c r="F11" s="21" t="inlineStr"/>
+      <c r="G11" s="22" t="inlineStr"/>
+      <c r="H11" s="21" t="inlineStr"/>
+      <c r="I11" s="21" t="inlineStr"/>
+      <c r="J11" s="21" t="inlineStr"/>
+      <c r="K11" s="22" t="inlineStr"/>
+      <c r="L11" s="21" t="inlineStr"/>
+      <c r="M11" s="21" t="inlineStr"/>
+      <c r="N11" s="21" t="inlineStr"/>
+      <c r="O11" s="22" t="inlineStr"/>
+      <c r="P11" s="21" t="inlineStr">
         <is>
           <t>matematyka</t>
         </is>
       </c>
-      <c r="Q11" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S11" s="21" t="inlineStr">
+      <c r="Q11" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S11" s="22" t="inlineStr">
         <is>
           <t>2G MEDYCZNA</t>
         </is>
       </c>
-      <c r="T11" s="20" t="inlineStr">
+      <c r="T11" s="21" t="inlineStr">
         <is>
           <t>godz.wych</t>
         </is>
       </c>
-      <c r="U11" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W11" s="21" t="inlineStr">
+      <c r="U11" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W11" s="22" t="inlineStr">
         <is>
           <t>3C MEDYCZNA</t>
         </is>
       </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="19" t="n"/>
+      <c r="C12" s="19" t="n"/>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="19" t="n"/>
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="19" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="19" t="n"/>
+      <c r="J12" s="19" t="n"/>
+      <c r="K12" s="19" t="n"/>
+      <c r="L12" s="19" t="n"/>
+      <c r="M12" s="19" t="n"/>
+      <c r="N12" s="19" t="n"/>
+      <c r="O12" s="19" t="n"/>
+      <c r="P12" s="19" t="n"/>
+      <c r="Q12" s="19" t="n"/>
+      <c r="R12" s="19" t="n"/>
+      <c r="S12" s="19" t="n"/>
+      <c r="T12" s="19" t="n"/>
+      <c r="U12" s="19" t="n"/>
+      <c r="V12" s="19" t="n"/>
+      <c r="W12" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7560,7 +7793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8443,50 +8676,74 @@
     </row>
     <row r="11" ht="14.3" customHeight="1">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="19" t="n">
+      <c r="B11" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="inlineStr">
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>13:40-14:25</t>
         </is>
       </c>
-      <c r="D11" s="20" t="inlineStr"/>
-      <c r="E11" s="20" t="inlineStr"/>
-      <c r="F11" s="20" t="inlineStr"/>
-      <c r="G11" s="21" t="inlineStr"/>
-      <c r="H11" s="20" t="inlineStr"/>
-      <c r="I11" s="20" t="inlineStr"/>
-      <c r="J11" s="20" t="inlineStr"/>
-      <c r="K11" s="21" t="inlineStr"/>
-      <c r="L11" s="20" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr"/>
+      <c r="E11" s="21" t="inlineStr"/>
+      <c r="F11" s="21" t="inlineStr"/>
+      <c r="G11" s="22" t="inlineStr"/>
+      <c r="H11" s="21" t="inlineStr"/>
+      <c r="I11" s="21" t="inlineStr"/>
+      <c r="J11" s="21" t="inlineStr"/>
+      <c r="K11" s="22" t="inlineStr"/>
+      <c r="L11" s="21" t="inlineStr">
         <is>
           <t>o.rozw.kreat</t>
         </is>
       </c>
-      <c r="M11" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O11" s="21" t="inlineStr">
+      <c r="M11" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O11" s="22" t="inlineStr">
         <is>
           <t>3E POLITECHNICZNA</t>
         </is>
       </c>
-      <c r="P11" s="20" t="inlineStr"/>
-      <c r="Q11" s="20" t="inlineStr"/>
-      <c r="R11" s="20" t="inlineStr"/>
-      <c r="S11" s="21" t="inlineStr"/>
-      <c r="T11" s="20" t="inlineStr"/>
-      <c r="U11" s="20" t="inlineStr"/>
-      <c r="V11" s="20" t="inlineStr"/>
-      <c r="W11" s="21" t="inlineStr"/>
+      <c r="P11" s="21" t="inlineStr"/>
+      <c r="Q11" s="21" t="inlineStr"/>
+      <c r="R11" s="21" t="inlineStr"/>
+      <c r="S11" s="22" t="inlineStr"/>
+      <c r="T11" s="21" t="inlineStr"/>
+      <c r="U11" s="21" t="inlineStr"/>
+      <c r="V11" s="21" t="inlineStr"/>
+      <c r="W11" s="22" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="19" t="n"/>
+      <c r="C12" s="19" t="n"/>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="19" t="n"/>
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="19" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="19" t="n"/>
+      <c r="J12" s="19" t="n"/>
+      <c r="K12" s="19" t="n"/>
+      <c r="L12" s="19" t="n"/>
+      <c r="M12" s="19" t="n"/>
+      <c r="N12" s="19" t="n"/>
+      <c r="O12" s="19" t="n"/>
+      <c r="P12" s="19" t="n"/>
+      <c r="Q12" s="19" t="n"/>
+      <c r="R12" s="19" t="n"/>
+      <c r="S12" s="19" t="n"/>
+      <c r="T12" s="19" t="n"/>
+      <c r="U12" s="19" t="n"/>
+      <c r="V12" s="19" t="n"/>
+      <c r="W12" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8508,7 +8765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9359,50 +9616,74 @@
     </row>
     <row r="11" ht="14.3" customHeight="1">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="19" t="n">
+      <c r="B11" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="inlineStr">
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>13:40-14:25</t>
         </is>
       </c>
-      <c r="D11" s="20" t="inlineStr"/>
-      <c r="E11" s="20" t="inlineStr"/>
-      <c r="F11" s="20" t="inlineStr"/>
-      <c r="G11" s="21" t="inlineStr"/>
-      <c r="H11" s="20" t="inlineStr"/>
-      <c r="I11" s="20" t="inlineStr"/>
-      <c r="J11" s="20" t="inlineStr"/>
-      <c r="K11" s="21" t="inlineStr"/>
-      <c r="L11" s="20" t="inlineStr"/>
-      <c r="M11" s="20" t="inlineStr"/>
-      <c r="N11" s="20" t="inlineStr"/>
-      <c r="O11" s="21" t="inlineStr"/>
-      <c r="P11" s="20" t="inlineStr"/>
-      <c r="Q11" s="20" t="inlineStr"/>
-      <c r="R11" s="20" t="inlineStr"/>
-      <c r="S11" s="21" t="inlineStr"/>
-      <c r="T11" s="20" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr"/>
+      <c r="E11" s="21" t="inlineStr"/>
+      <c r="F11" s="21" t="inlineStr"/>
+      <c r="G11" s="22" t="inlineStr"/>
+      <c r="H11" s="21" t="inlineStr"/>
+      <c r="I11" s="21" t="inlineStr"/>
+      <c r="J11" s="21" t="inlineStr"/>
+      <c r="K11" s="22" t="inlineStr"/>
+      <c r="L11" s="21" t="inlineStr"/>
+      <c r="M11" s="21" t="inlineStr"/>
+      <c r="N11" s="21" t="inlineStr"/>
+      <c r="O11" s="22" t="inlineStr"/>
+      <c r="P11" s="21" t="inlineStr"/>
+      <c r="Q11" s="21" t="inlineStr"/>
+      <c r="R11" s="21" t="inlineStr"/>
+      <c r="S11" s="22" t="inlineStr"/>
+      <c r="T11" s="21" t="inlineStr">
         <is>
           <t>j.polski</t>
         </is>
       </c>
-      <c r="U11" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W11" s="21" t="inlineStr">
+      <c r="U11" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W11" s="22" t="inlineStr">
         <is>
           <t>3D MEDYCZNA</t>
         </is>
       </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="19" t="n"/>
+      <c r="C12" s="19" t="n"/>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="19" t="n"/>
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="19" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="19" t="n"/>
+      <c r="J12" s="19" t="n"/>
+      <c r="K12" s="19" t="n"/>
+      <c r="L12" s="19" t="n"/>
+      <c r="M12" s="19" t="n"/>
+      <c r="N12" s="19" t="n"/>
+      <c r="O12" s="19" t="n"/>
+      <c r="P12" s="19" t="n"/>
+      <c r="Q12" s="19" t="n"/>
+      <c r="R12" s="19" t="n"/>
+      <c r="S12" s="19" t="n"/>
+      <c r="T12" s="19" t="n"/>
+      <c r="U12" s="19" t="n"/>
+      <c r="V12" s="19" t="n"/>
+      <c r="W12" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9424,7 +9705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10431,6 +10712,30 @@
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="18" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -10451,7 +10756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11238,82 +11543,106 @@
     </row>
     <row r="11" ht="14.3" customHeight="1">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="19" t="n">
+      <c r="B11" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="inlineStr">
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>13:40-14:25</t>
         </is>
       </c>
-      <c r="D11" s="20" t="inlineStr"/>
-      <c r="E11" s="20" t="inlineStr"/>
-      <c r="F11" s="20" t="inlineStr"/>
-      <c r="G11" s="21" t="inlineStr"/>
-      <c r="H11" s="20" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr"/>
+      <c r="E11" s="21" t="inlineStr"/>
+      <c r="F11" s="21" t="inlineStr"/>
+      <c r="G11" s="22" t="inlineStr"/>
+      <c r="H11" s="21" t="inlineStr">
         <is>
           <t>j.niemiecki</t>
         </is>
       </c>
-      <c r="I11" s="20" t="inlineStr">
+      <c r="I11" s="21" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="J11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K11" s="21" t="inlineStr">
+      <c r="J11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" s="22" t="inlineStr">
         <is>
           <t>2B HUMANISTYCZNA</t>
         </is>
       </c>
-      <c r="L11" s="20" t="inlineStr">
+      <c r="L11" s="21" t="inlineStr">
         <is>
           <t>j.niemiecki</t>
         </is>
       </c>
-      <c r="M11" s="20" t="inlineStr">
+      <c r="M11" s="21" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="N11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O11" s="21" t="inlineStr">
+      <c r="N11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O11" s="22" t="inlineStr">
         <is>
           <t>2D POLITECHNICZNA</t>
         </is>
       </c>
-      <c r="P11" s="20" t="inlineStr"/>
-      <c r="Q11" s="20" t="inlineStr"/>
-      <c r="R11" s="20" t="inlineStr"/>
-      <c r="S11" s="21" t="inlineStr"/>
-      <c r="T11" s="20" t="inlineStr">
+      <c r="P11" s="21" t="inlineStr"/>
+      <c r="Q11" s="21" t="inlineStr"/>
+      <c r="R11" s="21" t="inlineStr"/>
+      <c r="S11" s="22" t="inlineStr"/>
+      <c r="T11" s="21" t="inlineStr">
         <is>
           <t>j.niemiecki</t>
         </is>
       </c>
-      <c r="U11" s="20" t="inlineStr">
+      <c r="U11" s="21" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
-      <c r="V11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W11" s="21" t="inlineStr">
+      <c r="V11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W11" s="22" t="inlineStr">
         <is>
           <t>2E EKONOMICZNA</t>
         </is>
       </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="19" t="n"/>
+      <c r="C12" s="19" t="n"/>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="19" t="n"/>
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="19" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="19" t="n"/>
+      <c r="J12" s="19" t="n"/>
+      <c r="K12" s="19" t="n"/>
+      <c r="L12" s="19" t="n"/>
+      <c r="M12" s="19" t="n"/>
+      <c r="N12" s="19" t="n"/>
+      <c r="O12" s="19" t="n"/>
+      <c r="P12" s="19" t="n"/>
+      <c r="Q12" s="19" t="n"/>
+      <c r="R12" s="19" t="n"/>
+      <c r="S12" s="19" t="n"/>
+      <c r="T12" s="19" t="n"/>
+      <c r="U12" s="19" t="n"/>
+      <c r="V12" s="19" t="n"/>
+      <c r="W12" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -11335,7 +11664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12262,6 +12591,30 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -12282,7 +12635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13085,66 +13438,90 @@
     </row>
     <row r="11" ht="14.3" customHeight="1">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="19" t="n">
+      <c r="B11" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="inlineStr">
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>13:40-14:25</t>
         </is>
       </c>
-      <c r="D11" s="20" t="inlineStr"/>
-      <c r="E11" s="20" t="inlineStr"/>
-      <c r="F11" s="20" t="inlineStr"/>
-      <c r="G11" s="21" t="inlineStr"/>
-      <c r="H11" s="20" t="inlineStr"/>
-      <c r="I11" s="20" t="inlineStr"/>
-      <c r="J11" s="20" t="inlineStr"/>
-      <c r="K11" s="21" t="inlineStr"/>
-      <c r="L11" s="20" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr"/>
+      <c r="E11" s="21" t="inlineStr"/>
+      <c r="F11" s="21" t="inlineStr"/>
+      <c r="G11" s="22" t="inlineStr"/>
+      <c r="H11" s="21" t="inlineStr"/>
+      <c r="I11" s="21" t="inlineStr"/>
+      <c r="J11" s="21" t="inlineStr"/>
+      <c r="K11" s="22" t="inlineStr"/>
+      <c r="L11" s="21" t="inlineStr">
         <is>
           <t>informatyka</t>
         </is>
       </c>
-      <c r="M11" s="20" t="inlineStr">
+      <c r="M11" s="21" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="N11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O11" s="21" t="inlineStr">
+      <c r="N11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O11" s="22" t="inlineStr">
         <is>
           <t>3C MEDYCZNA</t>
         </is>
       </c>
-      <c r="P11" s="20" t="inlineStr">
+      <c r="P11" s="21" t="inlineStr">
         <is>
           <t>informatyka</t>
         </is>
       </c>
-      <c r="Q11" s="20" t="inlineStr">
+      <c r="Q11" s="21" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="R11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S11" s="21" t="inlineStr">
+      <c r="R11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S11" s="22" t="inlineStr">
         <is>
           <t>3B MATEMATYCZNO-GEOGRAFICZNA</t>
         </is>
       </c>
-      <c r="T11" s="20" t="inlineStr"/>
-      <c r="U11" s="20" t="inlineStr"/>
-      <c r="V11" s="20" t="inlineStr"/>
-      <c r="W11" s="21" t="inlineStr"/>
+      <c r="T11" s="21" t="inlineStr"/>
+      <c r="U11" s="21" t="inlineStr"/>
+      <c r="V11" s="21" t="inlineStr"/>
+      <c r="W11" s="22" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="19" t="n"/>
+      <c r="C12" s="19" t="n"/>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="19" t="n"/>
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="19" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="19" t="n"/>
+      <c r="J12" s="19" t="n"/>
+      <c r="K12" s="19" t="n"/>
+      <c r="L12" s="19" t="n"/>
+      <c r="M12" s="19" t="n"/>
+      <c r="N12" s="19" t="n"/>
+      <c r="O12" s="19" t="n"/>
+      <c r="P12" s="19" t="n"/>
+      <c r="Q12" s="19" t="n"/>
+      <c r="R12" s="19" t="n"/>
+      <c r="S12" s="19" t="n"/>
+      <c r="T12" s="19" t="n"/>
+      <c r="U12" s="19" t="n"/>
+      <c r="V12" s="19" t="n"/>
+      <c r="W12" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -13166,7 +13543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14061,6 +14438,30 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -14081,7 +14482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15072,6 +15473,30 @@
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="18" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -15092,7 +15517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15927,66 +16352,90 @@
     </row>
     <row r="11" ht="14.3" customHeight="1">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="19" t="n">
+      <c r="B11" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="inlineStr">
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>13:40-14:25</t>
         </is>
       </c>
-      <c r="D11" s="20" t="inlineStr"/>
-      <c r="E11" s="20" t="inlineStr"/>
-      <c r="F11" s="20" t="inlineStr"/>
-      <c r="G11" s="21" t="inlineStr"/>
-      <c r="H11" s="20" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr"/>
+      <c r="E11" s="21" t="inlineStr"/>
+      <c r="F11" s="21" t="inlineStr"/>
+      <c r="G11" s="22" t="inlineStr"/>
+      <c r="H11" s="21" t="inlineStr">
         <is>
           <t>j.angielski</t>
         </is>
       </c>
-      <c r="I11" s="20" t="inlineStr">
+      <c r="I11" s="21" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
-      <c r="J11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K11" s="21" t="inlineStr">
+      <c r="J11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" s="22" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="L11" s="20" t="inlineStr"/>
-      <c r="M11" s="20" t="inlineStr"/>
-      <c r="N11" s="20" t="inlineStr"/>
-      <c r="O11" s="21" t="inlineStr"/>
-      <c r="P11" s="20" t="inlineStr"/>
-      <c r="Q11" s="20" t="inlineStr"/>
-      <c r="R11" s="20" t="inlineStr"/>
-      <c r="S11" s="21" t="inlineStr"/>
-      <c r="T11" s="20" t="inlineStr">
+      <c r="L11" s="21" t="inlineStr"/>
+      <c r="M11" s="21" t="inlineStr"/>
+      <c r="N11" s="21" t="inlineStr"/>
+      <c r="O11" s="22" t="inlineStr"/>
+      <c r="P11" s="21" t="inlineStr"/>
+      <c r="Q11" s="21" t="inlineStr"/>
+      <c r="R11" s="21" t="inlineStr"/>
+      <c r="S11" s="22" t="inlineStr"/>
+      <c r="T11" s="21" t="inlineStr">
         <is>
           <t>j.angielski</t>
         </is>
       </c>
-      <c r="U11" s="20" t="inlineStr">
+      <c r="U11" s="21" t="inlineStr">
         <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="V11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W11" s="21" t="inlineStr">
+      <c r="V11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W11" s="22" t="inlineStr">
         <is>
           <t>1A LINGWISTYCZNO- BIZNESOWA</t>
         </is>
       </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="19" t="n"/>
+      <c r="C12" s="19" t="n"/>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="19" t="n"/>
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="19" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="19" t="n"/>
+      <c r="J12" s="19" t="n"/>
+      <c r="K12" s="19" t="n"/>
+      <c r="L12" s="19" t="n"/>
+      <c r="M12" s="19" t="n"/>
+      <c r="N12" s="19" t="n"/>
+      <c r="O12" s="19" t="n"/>
+      <c r="P12" s="19" t="n"/>
+      <c r="Q12" s="19" t="n"/>
+      <c r="R12" s="19" t="n"/>
+      <c r="S12" s="19" t="n"/>
+      <c r="T12" s="19" t="n"/>
+      <c r="U12" s="19" t="n"/>
+      <c r="V12" s="19" t="n"/>
+      <c r="W12" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -16008,7 +16457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16907,50 +17356,74 @@
     </row>
     <row r="11" ht="14.3" customHeight="1">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="19" t="n">
+      <c r="B11" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="inlineStr">
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>13:40-14:25</t>
         </is>
       </c>
-      <c r="D11" s="20" t="inlineStr"/>
-      <c r="E11" s="20" t="inlineStr"/>
-      <c r="F11" s="20" t="inlineStr"/>
-      <c r="G11" s="21" t="inlineStr"/>
-      <c r="H11" s="20" t="inlineStr"/>
-      <c r="I11" s="20" t="inlineStr"/>
-      <c r="J11" s="20" t="inlineStr"/>
-      <c r="K11" s="21" t="inlineStr"/>
-      <c r="L11" s="20" t="inlineStr"/>
-      <c r="M11" s="20" t="inlineStr"/>
-      <c r="N11" s="20" t="inlineStr"/>
-      <c r="O11" s="21" t="inlineStr"/>
-      <c r="P11" s="20" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr"/>
+      <c r="E11" s="21" t="inlineStr"/>
+      <c r="F11" s="21" t="inlineStr"/>
+      <c r="G11" s="22" t="inlineStr"/>
+      <c r="H11" s="21" t="inlineStr"/>
+      <c r="I11" s="21" t="inlineStr"/>
+      <c r="J11" s="21" t="inlineStr"/>
+      <c r="K11" s="22" t="inlineStr"/>
+      <c r="L11" s="21" t="inlineStr"/>
+      <c r="M11" s="21" t="inlineStr"/>
+      <c r="N11" s="21" t="inlineStr"/>
+      <c r="O11" s="22" t="inlineStr"/>
+      <c r="P11" s="21" t="inlineStr">
         <is>
           <t>j.angielski</t>
         </is>
       </c>
-      <c r="Q11" s="20" t="inlineStr">
+      <c r="Q11" s="21" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
-      <c r="R11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S11" s="21" t="inlineStr">
+      <c r="R11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S11" s="22" t="inlineStr">
         <is>
           <t>2A LINGWISTYCZNA</t>
         </is>
       </c>
-      <c r="T11" s="20" t="inlineStr"/>
-      <c r="U11" s="20" t="inlineStr"/>
-      <c r="V11" s="20" t="inlineStr"/>
-      <c r="W11" s="21" t="inlineStr"/>
+      <c r="T11" s="21" t="inlineStr"/>
+      <c r="U11" s="21" t="inlineStr"/>
+      <c r="V11" s="21" t="inlineStr"/>
+      <c r="W11" s="22" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="19" t="n"/>
+      <c r="C12" s="19" t="n"/>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="19" t="n"/>
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="19" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="19" t="n"/>
+      <c r="J12" s="19" t="n"/>
+      <c r="K12" s="19" t="n"/>
+      <c r="L12" s="19" t="n"/>
+      <c r="M12" s="19" t="n"/>
+      <c r="N12" s="19" t="n"/>
+      <c r="O12" s="19" t="n"/>
+      <c r="P12" s="19" t="n"/>
+      <c r="Q12" s="19" t="n"/>
+      <c r="R12" s="19" t="n"/>
+      <c r="S12" s="19" t="n"/>
+      <c r="T12" s="19" t="n"/>
+      <c r="U12" s="19" t="n"/>
+      <c r="V12" s="19" t="n"/>
+      <c r="W12" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -16972,7 +17445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17823,66 +18296,90 @@
     </row>
     <row r="11" ht="14.3" customHeight="1">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="19" t="n">
+      <c r="B11" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="inlineStr">
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>13:40-14:25</t>
         </is>
       </c>
-      <c r="D11" s="20" t="inlineStr"/>
-      <c r="E11" s="20" t="inlineStr"/>
-      <c r="F11" s="20" t="inlineStr"/>
-      <c r="G11" s="21" t="inlineStr"/>
-      <c r="H11" s="20" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr"/>
+      <c r="E11" s="21" t="inlineStr"/>
+      <c r="F11" s="21" t="inlineStr"/>
+      <c r="G11" s="22" t="inlineStr"/>
+      <c r="H11" s="21" t="inlineStr">
         <is>
           <t>godz.wych</t>
         </is>
       </c>
-      <c r="I11" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K11" s="21" t="inlineStr">
+      <c r="I11" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" s="22" t="inlineStr">
         <is>
           <t>2E EKONOMICZNA</t>
         </is>
       </c>
-      <c r="L11" s="20" t="inlineStr"/>
-      <c r="M11" s="20" t="inlineStr"/>
-      <c r="N11" s="20" t="inlineStr"/>
-      <c r="O11" s="21" t="inlineStr"/>
-      <c r="P11" s="20" t="inlineStr">
+      <c r="L11" s="21" t="inlineStr"/>
+      <c r="M11" s="21" t="inlineStr"/>
+      <c r="N11" s="21" t="inlineStr"/>
+      <c r="O11" s="22" t="inlineStr"/>
+      <c r="P11" s="21" t="inlineStr">
         <is>
           <t>geografia</t>
         </is>
       </c>
-      <c r="Q11" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S11" s="21" t="inlineStr">
+      <c r="Q11" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S11" s="22" t="inlineStr">
         <is>
           <t>2C MEDYCZNA</t>
         </is>
       </c>
-      <c r="T11" s="20" t="inlineStr"/>
-      <c r="U11" s="20" t="inlineStr"/>
-      <c r="V11" s="20" t="inlineStr"/>
-      <c r="W11" s="21" t="inlineStr"/>
+      <c r="T11" s="21" t="inlineStr"/>
+      <c r="U11" s="21" t="inlineStr"/>
+      <c r="V11" s="21" t="inlineStr"/>
+      <c r="W11" s="22" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="19" t="n"/>
+      <c r="C12" s="19" t="n"/>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="19" t="n"/>
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="19" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="19" t="n"/>
+      <c r="J12" s="19" t="n"/>
+      <c r="K12" s="19" t="n"/>
+      <c r="L12" s="19" t="n"/>
+      <c r="M12" s="19" t="n"/>
+      <c r="N12" s="19" t="n"/>
+      <c r="O12" s="19" t="n"/>
+      <c r="P12" s="19" t="n"/>
+      <c r="Q12" s="19" t="n"/>
+      <c r="R12" s="19" t="n"/>
+      <c r="S12" s="19" t="n"/>
+      <c r="T12" s="19" t="n"/>
+      <c r="U12" s="19" t="n"/>
+      <c r="V12" s="19" t="n"/>
+      <c r="W12" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -17904,7 +18401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18771,66 +19268,90 @@
     </row>
     <row r="11" ht="14.3" customHeight="1">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="19" t="n">
+      <c r="B11" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="inlineStr">
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>13:40-14:25</t>
         </is>
       </c>
-      <c r="D11" s="20" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr">
         <is>
           <t>j.polski</t>
         </is>
       </c>
-      <c r="E11" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G11" s="21" t="inlineStr">
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G11" s="22" t="inlineStr">
         <is>
           <t>3E POLITECHNICZNA</t>
         </is>
       </c>
-      <c r="H11" s="20" t="inlineStr"/>
-      <c r="I11" s="20" t="inlineStr"/>
-      <c r="J11" s="20" t="inlineStr"/>
-      <c r="K11" s="21" t="inlineStr"/>
-      <c r="L11" s="20" t="inlineStr"/>
-      <c r="M11" s="20" t="inlineStr"/>
-      <c r="N11" s="20" t="inlineStr"/>
-      <c r="O11" s="21" t="inlineStr"/>
-      <c r="P11" s="20" t="inlineStr"/>
-      <c r="Q11" s="20" t="inlineStr"/>
-      <c r="R11" s="20" t="inlineStr"/>
-      <c r="S11" s="21" t="inlineStr"/>
-      <c r="T11" s="20" t="inlineStr">
+      <c r="H11" s="21" t="inlineStr"/>
+      <c r="I11" s="21" t="inlineStr"/>
+      <c r="J11" s="21" t="inlineStr"/>
+      <c r="K11" s="22" t="inlineStr"/>
+      <c r="L11" s="21" t="inlineStr"/>
+      <c r="M11" s="21" t="inlineStr"/>
+      <c r="N11" s="21" t="inlineStr"/>
+      <c r="O11" s="22" t="inlineStr"/>
+      <c r="P11" s="21" t="inlineStr"/>
+      <c r="Q11" s="21" t="inlineStr"/>
+      <c r="R11" s="21" t="inlineStr"/>
+      <c r="S11" s="22" t="inlineStr"/>
+      <c r="T11" s="21" t="inlineStr">
         <is>
           <t>geografia</t>
         </is>
       </c>
-      <c r="U11" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W11" s="21" t="inlineStr">
+      <c r="U11" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W11" s="22" t="inlineStr">
         <is>
           <t>2B HUMANISTYCZNA</t>
         </is>
       </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="19" t="n"/>
+      <c r="C12" s="19" t="n"/>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="19" t="n"/>
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="19" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="19" t="n"/>
+      <c r="J12" s="19" t="n"/>
+      <c r="K12" s="19" t="n"/>
+      <c r="L12" s="19" t="n"/>
+      <c r="M12" s="19" t="n"/>
+      <c r="N12" s="19" t="n"/>
+      <c r="O12" s="19" t="n"/>
+      <c r="P12" s="19" t="n"/>
+      <c r="Q12" s="19" t="n"/>
+      <c r="R12" s="19" t="n"/>
+      <c r="S12" s="19" t="n"/>
+      <c r="T12" s="19" t="n"/>
+      <c r="U12" s="19" t="n"/>
+      <c r="V12" s="19" t="n"/>
+      <c r="W12" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -18852,7 +19373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19827,6 +20348,30 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -19847,7 +20392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21053,6 +21598,30 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="B16" s="19" t="n"/>
+      <c r="C16" s="19" t="n"/>
+      <c r="D16" s="19" t="n"/>
+      <c r="E16" s="19" t="n"/>
+      <c r="F16" s="19" t="n"/>
+      <c r="G16" s="19" t="n"/>
+      <c r="H16" s="19" t="n"/>
+      <c r="I16" s="19" t="n"/>
+      <c r="J16" s="19" t="n"/>
+      <c r="K16" s="19" t="n"/>
+      <c r="L16" s="19" t="n"/>
+      <c r="M16" s="19" t="n"/>
+      <c r="N16" s="19" t="n"/>
+      <c r="O16" s="19" t="n"/>
+      <c r="P16" s="19" t="n"/>
+      <c r="Q16" s="19" t="n"/>
+      <c r="R16" s="19" t="n"/>
+      <c r="S16" s="19" t="n"/>
+      <c r="T16" s="19" t="n"/>
+      <c r="U16" s="19" t="n"/>
+      <c r="V16" s="19" t="n"/>
+      <c r="W16" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="D4:W4"/>
@@ -21076,7 +21645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21987,6 +22556,30 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -22007,7 +22600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22934,6 +23527,30 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -22954,7 +23571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23773,82 +24390,106 @@
     </row>
     <row r="11" ht="14.3" customHeight="1">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="19" t="n">
+      <c r="B11" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="inlineStr">
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>13:40-14:25</t>
         </is>
       </c>
-      <c r="D11" s="20" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr">
         <is>
           <t>j.polski</t>
         </is>
       </c>
-      <c r="E11" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G11" s="21" t="inlineStr">
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G11" s="22" t="inlineStr">
         <is>
           <t>3C MEDYCZNA</t>
         </is>
       </c>
-      <c r="H11" s="20" t="inlineStr"/>
-      <c r="I11" s="20" t="inlineStr"/>
-      <c r="J11" s="20" t="inlineStr"/>
-      <c r="K11" s="21" t="inlineStr"/>
-      <c r="L11" s="20" t="inlineStr">
+      <c r="H11" s="21" t="inlineStr"/>
+      <c r="I11" s="21" t="inlineStr"/>
+      <c r="J11" s="21" t="inlineStr"/>
+      <c r="K11" s="22" t="inlineStr"/>
+      <c r="L11" s="21" t="inlineStr">
         <is>
           <t>j.polski</t>
         </is>
       </c>
-      <c r="M11" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O11" s="21" t="inlineStr">
+      <c r="M11" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O11" s="22" t="inlineStr">
         <is>
           <t>3B MATEMATYCZNO-GEOGRAFICZNA</t>
         </is>
       </c>
-      <c r="P11" s="20" t="inlineStr"/>
-      <c r="Q11" s="20" t="inlineStr"/>
-      <c r="R11" s="20" t="inlineStr"/>
-      <c r="S11" s="21" t="inlineStr"/>
-      <c r="T11" s="20" t="inlineStr">
+      <c r="P11" s="21" t="inlineStr"/>
+      <c r="Q11" s="21" t="inlineStr"/>
+      <c r="R11" s="21" t="inlineStr"/>
+      <c r="S11" s="22" t="inlineStr"/>
+      <c r="T11" s="21" t="inlineStr">
         <is>
           <t>j.polski</t>
         </is>
       </c>
-      <c r="U11" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W11" s="21" t="inlineStr">
+      <c r="U11" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W11" s="22" t="inlineStr">
         <is>
           <t>3B MATEMATYCZNO-GEOGRAFICZNA</t>
         </is>
       </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="19" t="n"/>
+      <c r="C12" s="19" t="n"/>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="19" t="n"/>
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="19" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="19" t="n"/>
+      <c r="J12" s="19" t="n"/>
+      <c r="K12" s="19" t="n"/>
+      <c r="L12" s="19" t="n"/>
+      <c r="M12" s="19" t="n"/>
+      <c r="N12" s="19" t="n"/>
+      <c r="O12" s="19" t="n"/>
+      <c r="P12" s="19" t="n"/>
+      <c r="Q12" s="19" t="n"/>
+      <c r="R12" s="19" t="n"/>
+      <c r="S12" s="19" t="n"/>
+      <c r="T12" s="19" t="n"/>
+      <c r="U12" s="19" t="n"/>
+      <c r="V12" s="19" t="n"/>
+      <c r="W12" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -23870,7 +24511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24797,6 +25438,30 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -24817,7 +25482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25680,6 +26345,30 @@
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="18" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -25700,7 +26389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26611,6 +27300,30 @@
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="18" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -26631,7 +27344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27510,6 +28223,30 @@
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="18" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -27530,7 +28267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28505,6 +29242,30 @@
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="18" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -28525,7 +29286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28960,50 +29721,74 @@
     </row>
     <row r="11" ht="14.3" customHeight="1">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="19" t="n">
+      <c r="B11" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="inlineStr">
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>13:40-14:25</t>
         </is>
       </c>
-      <c r="D11" s="20" t="inlineStr"/>
-      <c r="E11" s="20" t="inlineStr"/>
-      <c r="F11" s="20" t="inlineStr"/>
-      <c r="G11" s="21" t="inlineStr"/>
-      <c r="H11" s="20" t="inlineStr"/>
-      <c r="I11" s="20" t="inlineStr"/>
-      <c r="J11" s="20" t="inlineStr"/>
-      <c r="K11" s="21" t="inlineStr"/>
-      <c r="L11" s="20" t="inlineStr"/>
-      <c r="M11" s="20" t="inlineStr"/>
-      <c r="N11" s="20" t="inlineStr"/>
-      <c r="O11" s="21" t="inlineStr"/>
-      <c r="P11" s="20" t="inlineStr"/>
-      <c r="Q11" s="20" t="inlineStr"/>
-      <c r="R11" s="20" t="inlineStr"/>
-      <c r="S11" s="21" t="inlineStr"/>
-      <c r="T11" s="20" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr"/>
+      <c r="E11" s="21" t="inlineStr"/>
+      <c r="F11" s="21" t="inlineStr"/>
+      <c r="G11" s="22" t="inlineStr"/>
+      <c r="H11" s="21" t="inlineStr"/>
+      <c r="I11" s="21" t="inlineStr"/>
+      <c r="J11" s="21" t="inlineStr"/>
+      <c r="K11" s="22" t="inlineStr"/>
+      <c r="L11" s="21" t="inlineStr"/>
+      <c r="M11" s="21" t="inlineStr"/>
+      <c r="N11" s="21" t="inlineStr"/>
+      <c r="O11" s="22" t="inlineStr"/>
+      <c r="P11" s="21" t="inlineStr"/>
+      <c r="Q11" s="21" t="inlineStr"/>
+      <c r="R11" s="21" t="inlineStr"/>
+      <c r="S11" s="22" t="inlineStr"/>
+      <c r="T11" s="21" t="inlineStr">
         <is>
           <t>religia</t>
         </is>
       </c>
-      <c r="U11" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W11" s="21" t="inlineStr">
+      <c r="U11" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W11" s="22" t="inlineStr">
         <is>
           <t>4D</t>
         </is>
       </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="19" t="n"/>
+      <c r="C12" s="19" t="n"/>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="19" t="n"/>
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="19" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="19" t="n"/>
+      <c r="J12" s="19" t="n"/>
+      <c r="K12" s="19" t="n"/>
+      <c r="L12" s="19" t="n"/>
+      <c r="M12" s="19" t="n"/>
+      <c r="N12" s="19" t="n"/>
+      <c r="O12" s="19" t="n"/>
+      <c r="P12" s="19" t="n"/>
+      <c r="Q12" s="19" t="n"/>
+      <c r="R12" s="19" t="n"/>
+      <c r="S12" s="19" t="n"/>
+      <c r="T12" s="19" t="n"/>
+      <c r="U12" s="19" t="n"/>
+      <c r="V12" s="19" t="n"/>
+      <c r="W12" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
